--- a/coding_table.xlsx
+++ b/coding_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB87784-A0E8-4D7F-802B-DC81A0A9FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374939ED-2A6C-47CE-8377-92D35E0F6615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,14 +140,6 @@
   </si>
   <si>
     <t>T2 total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redundancy Event Calendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1533,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EEAAE-6B1F-4650-BB37-3763FADA90B1}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A39" activeCellId="7" sqref="J8:XFD8 H8 A34:XFD34 A35:XFD35 A36:XFD36 A37:XFD37 A38:XFD38 A39:XFD39"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1887,148 +1880,56 @@
         <v>77</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0</v>
+      <c r="A20" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coding_table.xlsx
+++ b/coding_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374939ED-2A6C-47CE-8377-92D35E0F6615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9144B-CCA5-467B-A7F9-B25C13851D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copyhistory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,7 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1529,7 +1532,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A21" activeCellId="5" sqref="H8:XFD8 A16:XFD16 A18:XFD18 A19:XFD19 A20:XFD20 A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1903,8 +1906,8 @@
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18"/>
+      <c r="E18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1923,8 +1926,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>9</v>
+      <c r="A21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/coding_table.xlsx
+++ b/coding_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9144B-CCA5-467B-A7F9-B25C13851D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB39544-5DDF-4A3E-B2F7-29B88EBB9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,26 @@
   </si>
   <si>
     <t>copyhistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1532,7 +1552,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" activeCellId="5" sqref="H8:XFD8 A16:XFD16 A18:XFD18 A19:XFD19 A20:XFD20 A21:XFD21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1890,6 +1910,21 @@
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">

--- a/coding_table.xlsx
+++ b/coding_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB39544-5DDF-4A3E-B2F7-29B88EBB9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B373C889-DE13-417C-B83A-F9FE318A7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,23 +175,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>termination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>label</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>server_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EEAAE-6B1F-4650-BB37-3763FADA90B1}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1911,19 +1931,19 @@
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1963,6 +1983,43 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/coding_table.xlsx
+++ b/coding_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B373C889-DE13-417C-B83A-F9FE318A7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C373DBF9-8267-46DC-A941-BAA7184C81EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>customer2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_exp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1571,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EEAAE-6B1F-4650-BB37-3763FADA90B1}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1945,6 +1949,9 @@
       <c r="H16" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
